--- a/Turma Home Jan2018/2° Sabado/Aula 3 E OU e SES/Aula Varios Ses 2.xlsx
+++ b/Turma Home Jan2018/2° Sabado/Aula 3 E OU e SES/Aula Varios Ses 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9A555-ABF3-4FBB-B62A-2CF7DA37DD76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93CE88-389C-4499-8D71-9266B52AEB3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,17 +913,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
